--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2179.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2179.xlsx
@@ -354,7 +354,7 @@
         <v>1.85135393586359</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.115267434357606</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2179.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2179.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.107436616991154</v>
+        <v>1.277687430381775</v>
       </c>
       <c r="B1">
-        <v>1.85135393586359</v>
+        <v>2.319268941879272</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.115267434357606</v>
+        <v>1.386290311813354</v>
       </c>
       <c r="E1">
-        <v>0.9081768260954023</v>
+        <v>0.8471335172653198</v>
       </c>
     </row>
   </sheetData>
